--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4015284.005124514</v>
+        <v>4009562.393156629</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>217.5699682789832</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>47.50320101340354</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>110.9272034736103</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>198.1920312293053</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>25.73468253713836</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>152.6509495310449</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>105.3980171505015</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
-        <v>201.4599832868425</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>42.98425264020202</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380393</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>202.983576364996</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292603</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396203</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>88.32978976418748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1900,7 +1900,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589019</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>51.62489145474429</v>
+        <v>187.4330611973841</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396203</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>68.74868616823331</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2298,16 +2298,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>212.5276795955112</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>173.7172817388085</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>62.28987188871545</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.5769297729266</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>126.5660981224325</v>
       </c>
       <c r="V28" t="n">
-        <v>119.8622228667797</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3006,19 +3006,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>268.7733598392826</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.00352625391645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>82.39501537729602</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>216.9590894589195</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>56.52930895032057</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>17.25588147840188</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>11.569741748653</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292604</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>210.6946994676582</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>22.54732564824115</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>213.4383553921876</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2310.5492509541</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>1941.586734013689</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1583.321035406938</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2318.103172347981</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1965.334517077867</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y2" t="n">
-        <v>2697.149091018222</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,28 +4412,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6471865296041</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6471865296041</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6471865296041</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6471865296041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.6471865296041</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>786.7375321813302</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="C5" t="n">
-        <v>786.7375321813302</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>428.4718335745796</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>428.4718335745796</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>421.5263328253762</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>407.6029287639671</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2671.15446219283</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2671.15446219283</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2671.15446219283</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2671.15446219283</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2340.091574849259</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>1987.322919579145</v>
       </c>
       <c r="X5" t="n">
-        <v>1563.476704221264</v>
+        <v>1613.857161318065</v>
       </c>
       <c r="Y5" t="n">
-        <v>1173.337372245452</v>
+        <v>1223.717829342253</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4667,28 +4667,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084169</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>500.1394333084169</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>500.1394333084169</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>500.1394333084169</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1668.489050745291</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1299.526533804879</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>941.2608351981287</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1871.983983358263</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1871.983983358263</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1668.489050745291</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4889,19 +4889,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U10" t="n">
-        <v>684.7105471961293</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V10" t="n">
-        <v>684.7105471961293</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W10" t="n">
-        <v>684.7105471961293</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X10" t="n">
-        <v>456.720996298112</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545819</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5032,7 +5032,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>357.0540087506647</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>690.873382440511</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1141.90759568892</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M11" t="n">
-        <v>2120.457898518748</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>2667.236715577531</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5071,22 +5071,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.4103109586945</v>
+        <v>492.7083461157117</v>
       </c>
       <c r="C13" t="n">
-        <v>243.4741280307875</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="D13" t="n">
-        <v>243.4741280307875</v>
+        <v>173.6555237754691</v>
       </c>
       <c r="E13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431757</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.6435265574</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>1150.609611037203</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W13" t="n">
-        <v>861.192441000242</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X13" t="n">
-        <v>633.2028901022246</v>
+        <v>895.1493900894816</v>
       </c>
       <c r="Y13" t="n">
-        <v>412.4103109586945</v>
+        <v>674.3568109459515</v>
       </c>
     </row>
     <row r="14">
@@ -5266,34 +5266,34 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2782.232616025903</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N14" t="n">
-        <v>3329.011433084685</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3831.983903964022</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
         <v>4260.556453353931</v>
@@ -5305,10 +5305,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604875</v>
@@ -5333,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089887</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5378,31 +5378,31 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>411.3871648742117</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="C16" t="n">
-        <v>242.4509819463048</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="D16" t="n">
-        <v>242.4509819463048</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1131.039769608815</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>1041.817759745999</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X16" t="n">
-        <v>813.8282088479815</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y16" t="n">
-        <v>593.0356297044514</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>289.6715157207268</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>944.3948478560262</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1395.429061104435</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M17" t="n">
-        <v>2373.979363934263</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.758180993045</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5609,7 +5609,7 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
         <v>2436.460902902953</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>854.4007383484569</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C19" t="n">
-        <v>854.4007383484569</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>704.2840989361212</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1814.366653857439</v>
+        <v>1767.017141662901</v>
       </c>
       <c r="T19" t="n">
-        <v>1592.600038426965</v>
+        <v>1545.250526232427</v>
       </c>
       <c r="U19" t="n">
-        <v>1592.600038426965</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V19" t="n">
-        <v>1592.600038426965</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W19" t="n">
-        <v>1303.182868390004</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X19" t="n">
-        <v>1075.193317491987</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y19" t="n">
-        <v>854.4007383484569</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="20">
@@ -5734,46 +5734,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1682.725100522033</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L21" t="n">
         <v>794.200663232024</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>333.9403347179511</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="C22" t="n">
-        <v>165.0041517900442</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D22" t="n">
-        <v>165.0041517900442</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E22" t="n">
-        <v>165.0041517900442</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.788099626699</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W22" t="n">
-        <v>964.3709295897384</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X22" t="n">
-        <v>736.381378691721</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y22" t="n">
-        <v>515.5887995481909</v>
+        <v>686.6979017231758</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
         <v>1646.988141143014</v>
@@ -5977,64 +5977,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839481</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277732</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176197</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.699401366028</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M23" t="n">
-        <v>2064.476622801002</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N23" t="n">
-        <v>3044.228895027648</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161917</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142067</v>
@@ -6098,16 +6098,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282341</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3644.341121778308</v>
+        <v>192.886711630049</v>
       </c>
       <c r="C25" t="n">
-        <v>3475.404938850401</v>
+        <v>192.886711630049</v>
       </c>
       <c r="D25" t="n">
-        <v>3475.404938850401</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E25" t="n">
-        <v>3475.404938850401</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F25" t="n">
-        <v>3328.514991352491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G25" t="n">
-        <v>3160.812154727209</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945067</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4688.221265177249</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>4688.221265177249</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>4399.118398302892</v>
+        <v>1367.418964744684</v>
       </c>
       <c r="V25" t="n">
-        <v>4399.118398302892</v>
+        <v>1112.734476538797</v>
       </c>
       <c r="W25" t="n">
-        <v>4109.701228265932</v>
+        <v>823.3173065018362</v>
       </c>
       <c r="X25" t="n">
-        <v>4046.782165752078</v>
+        <v>595.3277556038189</v>
       </c>
       <c r="Y25" t="n">
-        <v>3825.989586608548</v>
+        <v>374.5351764602888</v>
       </c>
     </row>
     <row r="26">
@@ -6202,70 +6202,70 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001591</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M26" t="n">
-        <v>2536.153662641309</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N26" t="n">
-        <v>3082.932479700092</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O26" t="n">
-        <v>3585.904950579429</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3773.434671845129</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C28" t="n">
-        <v>3773.434671845129</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>3623.318032432793</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>3475.4049388504</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>3328.51499135249</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4586.365838246546</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>4586.365838246546</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>4586.365838246546</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V28" t="n">
-        <v>4465.29288585586</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W28" t="n">
-        <v>4175.875715818899</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X28" t="n">
-        <v>4175.875715818899</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y28" t="n">
-        <v>3955.083136675369</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1296.118160724478</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M29" t="n">
-        <v>2274.668463554307</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>3254.420735780953</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6560,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1023.336921276364</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C31" t="n">
-        <v>854.4007383484569</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D31" t="n">
-        <v>704.2840989361212</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E31" t="n">
-        <v>556.371005353728</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F31" t="n">
         <v>409.4810578558177</v>
@@ -6615,16 +6615,16 @@
         <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.890966501056</v>
+        <v>1181.572266996683</v>
       </c>
       <c r="V31" t="n">
-        <v>1542.890966501056</v>
+        <v>926.8877787907957</v>
       </c>
       <c r="W31" t="n">
-        <v>1253.473796464095</v>
+        <v>637.470608753835</v>
       </c>
       <c r="X31" t="n">
-        <v>1253.473796464095</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.985386106604</v>
+        <v>409.4810578558177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1670.680157531993</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M32" t="n">
-        <v>2649.230460361821</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>540.4807149410336</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C34" t="n">
-        <v>540.4807149410336</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286979</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1644.746393431758</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>1644.746393431758</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V34" t="n">
-        <v>1390.061905225871</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W34" t="n">
-        <v>1170.911309812821</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X34" t="n">
-        <v>942.9217589148035</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y34" t="n">
-        <v>722.1291797712734</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6937,52 +6937,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3008.107474639232</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7019,10 +7019,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1734.57685067423</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1479.892362468343</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1190.475192431382</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>1133.374880360351</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.374880360351</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1070.832524924161</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,7 +7283,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
         <v>2043.809373447819</v>
@@ -7292,7 +7292,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>806.7425750505952</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C40" t="n">
-        <v>637.8063921226883</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D40" t="n">
-        <v>487.6897527103525</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E40" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7335,16 +7335,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.657581931531</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.657581931531</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1475.554715057174</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1220.870226851287</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.183619024365</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.183619024365</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>988.3910398808349</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7414,25 +7414,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1784.466183544591</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M41" t="n">
-        <v>2317.998088216516</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>3297.750360443163</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089883</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468559</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7511,31 +7511,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3528.195901081081</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C43" t="n">
-        <v>3528.195901081081</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D43" t="n">
-        <v>3378.079261668745</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E43" t="n">
-        <v>3378.079261668745</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>3231.189314170835</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>4688.221265177249</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>4466.454649746775</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>4177.351782872418</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>3922.667294666531</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>3922.667294666531</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>3709.844365911321</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>3709.844365911321</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>625.8141267662577</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1076.848340014667</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320242</v>
@@ -7745,16 +7745,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3520.226250692761</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C46" t="n">
-        <v>3351.290067764854</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D46" t="n">
-        <v>3328.51499135249</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E46" t="n">
-        <v>3328.51499135249</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F46" t="n">
-        <v>3328.51499135249</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G46" t="n">
-        <v>3160.812154727209</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>4466.454649746775</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>4177.351782872418</v>
+        <v>1740.749167728757</v>
       </c>
       <c r="V46" t="n">
-        <v>3922.667294666531</v>
+        <v>1486.06467952287</v>
       </c>
       <c r="W46" t="n">
-        <v>3922.667294666531</v>
+        <v>1486.06467952287</v>
       </c>
       <c r="X46" t="n">
-        <v>3922.667294666531</v>
+        <v>1258.075128624852</v>
       </c>
       <c r="Y46" t="n">
-        <v>3701.874715523001</v>
+        <v>1037.282549481322</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.34731650832811</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>29.61882225792249</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>34.13957882094024</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.284192235663625</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>295.4822118493993</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="M23" t="n">
-        <v>297.2174916798481</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>198.7154374299952</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>216.9877583263336</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,16 +10114,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>60.01894884691984</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>283.31560276855</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>248.8012738805276</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>288.0478149561025</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11062,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>398.2509825792557</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>7.630896635344811</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>69.12041821276524</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>49.154066958832</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>91.26811680410508</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>198.1932085724035</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983812</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>138.1441338766976</v>
+        <v>2.335964134057747</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>76.67236185469794</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>6.056973756583602</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>112.4945564668043</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>163.4197835003217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>159.6457400831803</v>
       </c>
       <c r="V28" t="n">
-        <v>132.2754204570483</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>17.43847836633029</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>170.5811270981783</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>84.85180572133181</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>69.56390887767148</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>169.1803464387166</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>162.5760987035354</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>274.953256587938</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>161.5631840798975</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>15.01495592137894</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>126.0681473699712</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>72.77348281342523</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632832.3480643338</v>
+        <v>632832.3480643339</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632832.3480643338</v>
+        <v>632832.3480643339</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>632832.3480643339</v>
+        <v>632832.3480643338</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>632832.3480643339</v>
+        <v>632832.3480643338</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>632832.3480643339</v>
+        <v>632832.3480643338</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>632832.3480643339</v>
+        <v>632832.3480643338</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.725617676</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>774309.4844296172</v>
+        <v>774309.4844296173</v>
       </c>
       <c r="F2" t="n">
-        <v>774309.4844296168</v>
+        <v>774309.4844296169</v>
       </c>
       <c r="G2" t="n">
         <v>774309.4844296167</v>
       </c>
       <c r="H2" t="n">
-        <v>774309.4844296171</v>
+        <v>774309.4844296168</v>
       </c>
       <c r="I2" t="n">
         <v>774309.4844296169</v>
       </c>
       <c r="J2" t="n">
-        <v>774309.4844296166</v>
+        <v>774309.4844296169</v>
       </c>
       <c r="K2" t="n">
-        <v>774309.4844296164</v>
+        <v>774309.4844296171</v>
       </c>
       <c r="L2" t="n">
+        <v>774309.4844296171</v>
+      </c>
+      <c r="M2" t="n">
+        <v>774309.4844296173</v>
+      </c>
+      <c r="N2" t="n">
+        <v>774309.4844296172</v>
+      </c>
+      <c r="O2" t="n">
         <v>774309.4844296168</v>
       </c>
-      <c r="M2" t="n">
-        <v>774309.4844296169</v>
-      </c>
-      <c r="N2" t="n">
-        <v>774309.4844296169</v>
-      </c>
-      <c r="O2" t="n">
-        <v>774309.4844296167</v>
-      </c>
       <c r="P2" t="n">
-        <v>774309.4844296168</v>
+        <v>774309.4844296171</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,13 +26395,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26429,19 +26429,19 @@
         <v>18148.49231918995</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918995</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
@@ -26450,16 +26450,16 @@
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="N4" t="n">
+        <v>18148.49231918989</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="P4" t="n">
         <v>18148.49231918993</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18148.49231918994</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26487,7 +26487,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
@@ -26499,19 +26499,19 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="P5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55659.9185174056</v>
+        <v>-55659.91851740584</v>
       </c>
       <c r="C6" t="n">
-        <v>534307.960697139</v>
+        <v>534307.9606971388</v>
       </c>
       <c r="D6" t="n">
-        <v>534307.9606971388</v>
+        <v>534307.9606971389</v>
       </c>
       <c r="E6" t="n">
-        <v>-67599.94013669298</v>
+        <v>-68271.89503895091</v>
       </c>
       <c r="F6" t="n">
-        <v>659777.4738567134</v>
+        <v>659105.5189544555</v>
       </c>
       <c r="G6" t="n">
-        <v>659777.4738567132</v>
+        <v>659105.5189544553</v>
       </c>
       <c r="H6" t="n">
-        <v>659777.4738567135</v>
+        <v>659105.5189544554</v>
       </c>
       <c r="I6" t="n">
-        <v>659777.4738567134</v>
+        <v>659105.5189544555</v>
       </c>
       <c r="J6" t="n">
-        <v>483354.25466412</v>
+        <v>482682.2997618626</v>
       </c>
       <c r="K6" t="n">
-        <v>659777.4738567129</v>
+        <v>659105.5189544556</v>
       </c>
       <c r="L6" t="n">
-        <v>659777.4738567132</v>
+        <v>659105.5189544556</v>
       </c>
       <c r="M6" t="n">
-        <v>530135.1590177687</v>
+        <v>529463.204115511</v>
       </c>
       <c r="N6" t="n">
-        <v>659777.4738567133</v>
+        <v>659105.5189544557</v>
       </c>
       <c r="O6" t="n">
-        <v>659777.4738567133</v>
+        <v>659105.5189544554</v>
       </c>
       <c r="P6" t="n">
-        <v>659777.4738567133</v>
+        <v>659105.5189544556</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26773,7 +26773,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,13 +26989,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>164.3604017932786</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,16 +27435,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>203.7209664948858</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>34.49384454932095</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>125.7307415350518</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>28.74372003767335</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>14.59587156758289</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>40.02303087242973</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
-        <v>184.7779553692111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.59587156758289</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>243.2976216017757</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28809,19 +28809,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.559637080376078e-15</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-6.751381063403296e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30480,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32329,10 +32329,10 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987486</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33736,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34465,7 +34465,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>264.1343174770406</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908542</v>
@@ -35433,7 +35433,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>581.9206576708337</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>432.9015650403121</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>196.0711932043761</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M17" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509644</v>
@@ -35904,10 +35904,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35977,10 +35977,10 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127271</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>751.0723262417313</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>588.5891319493436</v>
       </c>
       <c r="M23" t="n">
-        <v>836.1386075100746</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>654.3055518223274</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>615.7497445457052</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597769</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>515.6090632392518</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>738.9057171608822</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>756.8542747687467</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>625.2391015115031</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509647</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>853.8410969715878</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>344.8221831907453</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38113,7 +38113,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4009562.393156629</v>
+        <v>4012967.884281078</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>46.69972942218443</v>
       </c>
       <c r="U2" t="n">
-        <v>47.50320101340354</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.73468253713836</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850751</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>14.52687838733165</v>
       </c>
       <c r="C7" t="n">
-        <v>152.6509495310449</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>307.9222910483176</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.52687838733143</v>
+        <v>14.52687838733165</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873209</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>77.31354443380393</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>283.8758740715556</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>74.75769145492315</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589019</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>20.84941070693857</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>187.4330611973841</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>147.0633545968146</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2298,16 +2298,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.5276795955112</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2532,13 +2532,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>173.7172817388085</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>181.4487096095777</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.5769297729266</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>141.167062152907</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>126.5660981224325</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>8.749424143405008</v>
       </c>
       <c r="U31" t="n">
-        <v>268.7733598392826</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
-        <v>82.39501537729602</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.25588147840188</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.26879610203982</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>213.4383553921876</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>167.3072196911918</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
         <v>478.8522906713811</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2649.97764715743</v>
       </c>
       <c r="U2" t="n">
-        <v>2649.166059691552</v>
+        <v>2649.97764715743</v>
       </c>
       <c r="V2" t="n">
-        <v>2318.103172347981</v>
+        <v>2318.914759813859</v>
       </c>
       <c r="W2" t="n">
-        <v>1965.334517077867</v>
+        <v>1966.146104543745</v>
       </c>
       <c r="X2" t="n">
-        <v>1591.868758816787</v>
+        <v>1592.680346282665</v>
       </c>
       <c r="Y2" t="n">
-        <v>1591.868758816787</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>837.1179892781316</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781316</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
         <v>478.8522906713811</v>
@@ -4558,61 +4558,61 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2671.15446219283</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2671.15446219283</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2671.15446219283</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2671.15446219283</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2340.091574849259</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1987.322919579145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1613.857161318065</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1223.717829342253</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C7" t="n">
         <v>544.5191867458693</v>
@@ -4725,52 +4725,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>764.6872557005406</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>378.8990031022964</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4846,10 +4846,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4901,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4962,25 +4962,25 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
         <v>713.4553696737762</v>
@@ -5026,13 +5026,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.141533600159</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5041,13 +5041,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622689</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M11" t="n">
         <v>2432.390822294613</v>
@@ -5071,7 +5071,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
@@ -5111,7 +5111,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5120,28 +5120,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>492.7083461157117</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C13" t="n">
-        <v>323.7721631878048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D13" t="n">
-        <v>173.6555237754691</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.55611102446</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.138940987499</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X13" t="n">
-        <v>895.1493900894816</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.3568109459515</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5278,25 +5278,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483405</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5348,7 +5348,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5357,25 +5357,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>171.0738540998319</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>171.0738540998319</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>171.0738540998319</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>171.0738540998319</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>171.0738540998319</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>909.27315417834</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413794</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>391.8664332433621</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998319</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,7 +5500,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5518,22 +5518,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364129</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2439.038619608516</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5542,7 +5542,7 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
         <v>4461.783306331037</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,22 +5594,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
         <v>2436.460902902953</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.2638710736754</v>
+        <v>749.5938910111498</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>580.6577080832429</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>430.5410686709072</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>430.5410686709072</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>430.5410686709072</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>262.8382320456261</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>116.6210452634839</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1767.017141662901</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1545.250526232427</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1256.147659358071</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V19" t="n">
-        <v>1001.463171152184</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W19" t="n">
-        <v>712.0460011152229</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="X19" t="n">
-        <v>484.0564502172056</v>
+        <v>970.38647015468</v>
       </c>
       <c r="Y19" t="n">
-        <v>263.2638710736754</v>
+        <v>749.5938910111498</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193586</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>686.6979017231758</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="C22" t="n">
-        <v>686.6979017231758</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="D22" t="n">
-        <v>536.5812623108401</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="E22" t="n">
-        <v>388.668168728447</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W22" t="n">
-        <v>901.3723255570255</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X22" t="n">
-        <v>901.3723255570255</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="Y22" t="n">
-        <v>686.6979017231758</v>
+        <v>425.7583423057196</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,7 +5974,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5986,22 +5986,22 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844494</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232731</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.238303939012</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1367.418964744684</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1112.734476538797</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>823.3173065018362</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>595.3277556038189</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>374.5351764602888</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6214,16 +6214,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001591</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6232,46 +6232,46 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1586.925993846824</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M26" t="n">
-        <v>2120.457898518748</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N26" t="n">
-        <v>2667.236715577531</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
@@ -6323,16 +6323,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>432.2000540015823</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736754</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1606.732307116217</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1352.04781891033</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1062.630648873369</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>834.6410979753522</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>613.848518831822</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="29">
@@ -6442,25 +6442,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6469,25 +6469,25 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,16 +6572,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>409.4810578558177</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="C31" t="n">
-        <v>409.4810578558177</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D31" t="n">
-        <v>409.4810578558177</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E31" t="n">
-        <v>409.4810578558177</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6651,22 +6651,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1665.989322524003</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.572266996683</v>
+        <v>1376.886455649646</v>
       </c>
       <c r="V31" t="n">
-        <v>926.8877787907957</v>
+        <v>1376.886455649646</v>
       </c>
       <c r="W31" t="n">
-        <v>637.470608753835</v>
+        <v>1376.886455649646</v>
       </c>
       <c r="X31" t="n">
-        <v>409.4810578558177</v>
+        <v>1376.886455649646</v>
       </c>
       <c r="Y31" t="n">
-        <v>409.4810578558177</v>
+        <v>1156.093876506116</v>
       </c>
     </row>
     <row r="32">
@@ -6691,46 +6691,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1898.858917622688</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6800,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6809,16 +6809,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>492.7083461157126</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>895.1493900894825</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>674.3568109459524</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6934,55 +6934,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7153,13 +7153,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7171,7 +7171,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
@@ -7189,31 +7189,31 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7250,13 +7250,13 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320242</v>
@@ -7271,22 +7271,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7602,19 +7602,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
@@ -7663,37 +7663,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>855.6340846510827</v>
+        <v>558.6274977408367</v>
       </c>
       <c r="C46" t="n">
-        <v>686.6979017231758</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="D46" t="n">
-        <v>536.5812623108401</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E46" t="n">
-        <v>388.668168728447</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F46" t="n">
         <v>241.7782212305366</v>
@@ -7800,10 +7800,10 @@
         <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1740.749167728757</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1486.06467952287</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>1486.06467952287</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X46" t="n">
-        <v>1258.075128624852</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="Y46" t="n">
-        <v>1037.282549481322</v>
+        <v>740.2759625710764</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>29.61882225792249</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>315.167921710932</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9166,16 +9166,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277313</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>102.8529310510272</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>132.9990175570114</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>198.7154374299952</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10351,28 +10351,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>169.5026663584964</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>67.53663776704178</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>69.12041821276524</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.335964134057292</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>91.26811680410508</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>75.50300970289952</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2.335964134057747</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>18.96245366221365</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.056973756583602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>112.4945564668043</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>24.8587461061212</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>159.6457400831803</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>210.7995251327642</v>
       </c>
       <c r="U31" t="n">
-        <v>17.43847836633029</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
-        <v>84.85180572133181</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25125,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>162.5760987035354</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>161.5631840798975</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>72.77348281342523</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>51.27743366090303</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632832.3480643338</v>
+        <v>632832.3480643339</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632832.3480643339</v>
+        <v>632832.3480643338</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632832.3480643338</v>
+        <v>632832.3480643339</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632832.3480643338</v>
+        <v>632832.3480643339</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>774309.4844296173</v>
+        <v>774309.4844296169</v>
       </c>
       <c r="F2" t="n">
+        <v>774309.4844296172</v>
+      </c>
+      <c r="G2" t="n">
         <v>774309.4844296169</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>774309.4844296171</v>
+      </c>
+      <c r="I2" t="n">
         <v>774309.4844296167</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>774309.4844296171</v>
+      </c>
+      <c r="K2" t="n">
+        <v>774309.4844296169</v>
+      </c>
+      <c r="L2" t="n">
+        <v>774309.4844296169</v>
+      </c>
+      <c r="M2" t="n">
+        <v>774309.4844296172</v>
+      </c>
+      <c r="N2" t="n">
         <v>774309.4844296168</v>
       </c>
-      <c r="I2" t="n">
-        <v>774309.4844296169</v>
-      </c>
-      <c r="J2" t="n">
-        <v>774309.4844296169</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>774309.4844296171</v>
       </c>
-      <c r="L2" t="n">
-        <v>774309.4844296171</v>
-      </c>
-      <c r="M2" t="n">
-        <v>774309.4844296173</v>
-      </c>
-      <c r="N2" t="n">
-        <v>774309.4844296172</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>774309.4844296168</v>
-      </c>
-      <c r="P2" t="n">
-        <v>774309.4844296171</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918994</v>
@@ -26441,25 +26441,25 @@
         <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="M4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="P4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="M4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18148.49231918989</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18148.49231918993</v>
       </c>
     </row>
     <row r="5">
@@ -26472,25 +26472,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26505,13 +26505,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="O5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="P5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55659.91851740584</v>
+        <v>-55659.91851740557</v>
       </c>
       <c r="C6" t="n">
-        <v>534307.9606971388</v>
+        <v>534307.9606971389</v>
       </c>
       <c r="D6" t="n">
         <v>534307.9606971389</v>
       </c>
       <c r="E6" t="n">
-        <v>-68271.89503895091</v>
+        <v>-67667.13562691901</v>
       </c>
       <c r="F6" t="n">
-        <v>659105.5189544555</v>
+        <v>659710.2783664878</v>
       </c>
       <c r="G6" t="n">
-        <v>659105.5189544553</v>
+        <v>659710.2783664876</v>
       </c>
       <c r="H6" t="n">
-        <v>659105.5189544554</v>
+        <v>659710.2783664877</v>
       </c>
       <c r="I6" t="n">
-        <v>659105.5189544555</v>
+        <v>659710.2783664874</v>
       </c>
       <c r="J6" t="n">
-        <v>482682.2997618626</v>
+        <v>483287.0591738948</v>
       </c>
       <c r="K6" t="n">
-        <v>659105.5189544556</v>
+        <v>659710.2783664876</v>
       </c>
       <c r="L6" t="n">
-        <v>659105.5189544556</v>
+        <v>659710.2783664876</v>
       </c>
       <c r="M6" t="n">
-        <v>529463.204115511</v>
+        <v>530067.9635275431</v>
       </c>
       <c r="N6" t="n">
-        <v>659105.5189544557</v>
+        <v>659710.2783664875</v>
       </c>
       <c r="O6" t="n">
-        <v>659105.5189544554</v>
+        <v>659710.2783664877</v>
       </c>
       <c r="P6" t="n">
-        <v>659105.5189544556</v>
+        <v>659710.2783664875</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>169.7485909354734</v>
       </c>
       <c r="U2" t="n">
-        <v>203.7209664948858</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>28.74372003767335</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>98.95375469339393</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3051017946056</v>
       </c>
       <c r="C7" t="n">
-        <v>14.59587156758289</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>98.95375469339388</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.59587156758289</v>
+        <v>14.59587156758265</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-6.751381063403296e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34465,7 +34465,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400166</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>581.9206576708337</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>713.9299079303039</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200632</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>641.774046881254</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>588.5891319493436</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36372,7 +36372,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36600,7 +36600,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>654.3055518223274</v>
+        <v>588.5891319493436</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36618,7 +36618,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -37071,28 +37071,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>568.2646525778682</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>466.2986239864136</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38113,7 +38113,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
